--- a/Scenario3/PesquisaScopus.xlsx
+++ b/Scenario3/PesquisaScopus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigosantos/Documents/MGTI/03 - Gestão Estratégica e do Conhecimento/Referencias_Aula5/WeakSignals/Scenario3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigosantos/Documents/GitHub/weak_signals/Scenario3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587DF0A9-7049-2149-9E55-2A980BEB4B63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1803229-AC2C-534B-8EAC-AFE12A402232}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="24940" windowHeight="12680" activeTab="1" xr2:uid="{F0A6DCAD-C322-1B43-8143-01FC92096E1B}"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="24940" windowHeight="12680" xr2:uid="{F0A6DCAD-C322-1B43-8143-01FC92096E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenarios_Pesquisa_WeakSignals" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <r>
       <t>TITLE-ABS-KEY ( </t>
@@ -808,6 +808,179 @@
   </si>
   <si>
     <t>Chemistry</t>
+  </si>
+  <si>
+    <t>pesquisa5</t>
+  </si>
+  <si>
+    <r>
+      <t>( TITLE-ABS-KEY ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"weak signals"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) )  AND  ( ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"big data"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"corporate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"foresight"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) OR  ( "wild cards" ) )  AND  ( LIMIT-TO ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"BUSI"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  LIMIT-TO ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"SOCI"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  LIMIT-TO ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"COMP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  LIMIT-TO ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ECON"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  LIMIT-TO ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"DECI"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) )</t>
+    </r>
+  </si>
+  <si>
+    <t>Feita após encontrar alguns artigos interessantes sobre o assunto e ver que ele está diretamente relacionado com o trabalho.</t>
   </si>
 </sst>
 </file>
@@ -877,9 +1050,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -891,6 +1061,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF0166F-787D-894D-8190-7C9C1739C3CD}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1241,7 +1414,7 @@
       <c r="C3">
         <v>7</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="10">
         <f>C3+C4+C5+C6+C7</f>
         <v>298</v>
       </c>
@@ -1253,7 +1426,7 @@
       <c r="C4">
         <v>30</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1262,7 +1435,7 @@
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -1271,7 +1444,7 @@
       <c r="C6">
         <v>126</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -1280,7 +1453,7 @@
       <c r="C7">
         <v>114</v>
       </c>
-      <c r="D7" s="4"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -1304,14 +1477,14 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" ht="119" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>201</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1328,8 +1501,19 @@
       <c r="C11">
         <v>178</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="144" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BBB1CB-C67A-0243-BD1D-82E368B732D1}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1354,31 +1538,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B1" s="9">
         <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B4">
@@ -1386,23 +1570,23 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B7">
@@ -1410,7 +1594,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B8">
@@ -1418,7 +1602,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B9">
@@ -1426,7 +1610,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B10">
@@ -1434,7 +1618,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B11">
@@ -1442,7 +1626,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B12">
@@ -1450,7 +1634,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B13">
@@ -1458,7 +1642,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B14">
@@ -1466,7 +1650,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B15">
@@ -1474,7 +1658,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
       <c r="B16">
@@ -1482,7 +1666,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B17">
@@ -1490,7 +1674,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
       <c r="B18">

--- a/Scenario3/PesquisaScopus.xlsx
+++ b/Scenario3/PesquisaScopus.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigosantos/Documents/GitHub/weak_signals/Scenario3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1803229-AC2C-534B-8EAC-AFE12A402232}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D954BC4-E808-D648-8BD2-560666028FFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="24940" windowHeight="12680" xr2:uid="{F0A6DCAD-C322-1B43-8143-01FC92096E1B}"/>
+    <workbookView xWindow="5620" yWindow="-20580" windowWidth="33240" windowHeight="19300" xr2:uid="{F0A6DCAD-C322-1B43-8143-01FC92096E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenarios_Pesquisa_WeakSignals" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1380,8 +1381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF0166F-787D-894D-8190-7C9C1739C3CD}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,6 +1512,9 @@
       </c>
       <c r="B12" s="2" t="s">
         <v>37</v>
+      </c>
+      <c r="C12">
+        <v>185</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>38</v>
@@ -1684,4 +1688,44 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D693CBB-CAAF-DB4C-A11D-CC52DA34D9B2}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A1:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1577</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Scenario3/PesquisaScopus.xlsx
+++ b/Scenario3/PesquisaScopus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigosantos/Documents/GitHub/weak_signals/Scenario3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D954BC4-E808-D648-8BD2-560666028FFB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA93BC-4A09-5A4D-BEB6-3D84A8D5769A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="-20580" windowWidth="33240" windowHeight="19300" xr2:uid="{F0A6DCAD-C322-1B43-8143-01FC92096E1B}"/>
+    <workbookView xWindow="80" yWindow="-20580" windowWidth="33240" windowHeight="19300" xr2:uid="{F0A6DCAD-C322-1B43-8143-01FC92096E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenarios_Pesquisa_WeakSignals" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <r>
       <t>TITLE-ABS-KEY ( </t>
@@ -982,6 +982,626 @@
   </si>
   <si>
     <t>Feita após encontrar alguns artigos interessantes sobre o assunto e ver que ele está diretamente relacionado com o trabalho.</t>
+  </si>
+  <si>
+    <t>pesquisa6</t>
+  </si>
+  <si>
+    <r>
+      <t>( TITLE-ABS-KEY ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"weak signals"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) )  AND  ( ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"scenario"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"planning"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"big"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"data"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"scanning"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"corporate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"foresight"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"wild cards"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"future"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"horizon scanning"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"text mining"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"inovation"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"enviromental"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"early warnings"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"prospective"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) )  AND  ( EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ENGI"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PHYS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"BIOC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"MEDI"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"EART"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CHEM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"AGRI"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"NEUR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PSYC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ENER"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"ARTS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"IMMU"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PHAR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CENG"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"HEAL"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"VETE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"DENT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) )  AND  ( EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Undefined"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) ) </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1379,10 +1999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF0166F-787D-894D-8190-7C9C1739C3CD}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:D12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1518,6 +2138,14 @@
       </c>
       <c r="D12" s="4" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="408" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Scenario3/PesquisaScopus.xlsx
+++ b/Scenario3/PesquisaScopus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigosantos/Documents/GitHub/weak_signals/Scenario3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA93BC-4A09-5A4D-BEB6-3D84A8D5769A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1DBA72-BC49-3241-89A5-A357379D3679}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="-20580" windowWidth="33240" windowHeight="19300" xr2:uid="{F0A6DCAD-C322-1B43-8143-01FC92096E1B}"/>
+    <workbookView xWindow="-640" yWindow="-20500" windowWidth="33240" windowHeight="19300" xr2:uid="{F0A6DCAD-C322-1B43-8143-01FC92096E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenarios_Pesquisa_WeakSignals" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <r>
       <t>TITLE-ABS-KEY ( </t>
@@ -1592,6 +1592,320 @@
         <family val="2"/>
       </rPr>
       <t>"Undefined"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) ) </t>
+    </r>
+  </si>
+  <si>
+    <t>pesquisa7</t>
+  </si>
+  <si>
+    <r>
+      <t>( TITLE-ABS-KEY ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>foresight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  AND  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>prospective</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  AND  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>forecasting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>  OR  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>scenario</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>  OR  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>strategic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  AND  ( EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Undefined"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"BIOC"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"PHAR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CHEM"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"MATE"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"CENG"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"MULT"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"NURS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  OR  EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"MATH"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) )  AND  ( EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"EART"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) )  AND  ( EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"NEUR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) )  AND  ( EXCLUDE ( SUBJAREA ,  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"MEDI"</t>
     </r>
     <r>
       <rPr>
@@ -1999,14 +2313,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF0166F-787D-894D-8190-7C9C1739C3CD}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
     <col min="2" max="2" width="99.6640625" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.5" customWidth="1"/>
@@ -2088,7 +2403,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2113,7 +2428,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2127,7 +2442,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="144" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2141,11 +2456,19 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="408" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Scenario3/PesquisaScopus.xlsx
+++ b/Scenario3/PesquisaScopus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rodrigosantos/Documents/GitHub/weak_signals/Scenario3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\weak_signals\Scenario3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1DBA72-BC49-3241-89A5-A357379D3679}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DB06A8-859B-4DCD-B233-5788F81FDE68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-640" yWindow="-20500" windowWidth="33240" windowHeight="19300" xr2:uid="{F0A6DCAD-C322-1B43-8143-01FC92096E1B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0A6DCAD-C322-1B43-8143-01FC92096E1B}"/>
   </bookViews>
   <sheets>
     <sheet name="Cenarios_Pesquisa_WeakSignals" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <r>
       <t>TITLE-ABS-KEY ( </t>
@@ -1916,13 +1916,16 @@
       </rPr>
       <t> ) ) </t>
     </r>
+  </si>
+  <si>
+    <t>( TITLE-ABS-KEY ( "foresight" ) )  AND  PUBYEAR  &gt;  2009 and "weak signals" or "scenario" or "planning" or "big" or "data" or "big data" or "horizon" or  "scanning" or "horizon scanning" or "corporate" or "wild cards" or "future" or "text mining" or "innovation" or "environmental" or "early warnings" or "prospective" or "forecasting" or "strategic"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1947,6 +1950,14 @@
       <color rgb="FF323232"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1975,7 +1986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1999,6 +2010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2313,21 +2325,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF0166F-787D-894D-8190-7C9C1739C3CD}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="99.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="5"/>
+    <col min="2" max="2" width="99.625" customWidth="1"/>
+    <col min="3" max="3" width="12.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -2335,7 +2347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2355,7 @@
         <v>7859</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2355,7 +2367,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2364,7 +2376,7 @@
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2373,7 +2385,7 @@
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -2382,7 +2394,7 @@
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -2391,7 +2403,7 @@
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" s="3" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="3" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2402,7 +2414,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
@@ -2413,7 +2425,7 @@
         <v>3407</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="119" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -2427,7 +2439,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="144" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -2441,7 +2453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="144" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2455,7 +2467,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="408" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
@@ -2463,19 +2475,26 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="240" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="232.5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="15" spans="1:4" ht="116.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D3:D7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2487,12 +2506,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="81.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>18</v>
       </c>
@@ -2500,7 +2519,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>19</v>
       </c>
@@ -2508,7 +2527,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -2516,7 +2535,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -2524,7 +2543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -2532,7 +2551,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
@@ -2540,7 +2559,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>24</v>
       </c>
@@ -2548,7 +2567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>25</v>
       </c>
@@ -2556,7 +2575,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
@@ -2564,7 +2583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>27</v>
       </c>
@@ -2572,7 +2591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -2580,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>29</v>
       </c>
@@ -2588,7 +2607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>30</v>
       </c>
@@ -2596,7 +2615,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
@@ -2604,7 +2623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>32</v>
       </c>
@@ -2612,7 +2631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
@@ -2620,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -2628,7 +2647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>35</v>
       </c>
@@ -2649,29 +2668,29 @@
       <selection activeCell="A5" sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1357</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1439</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1570</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1813</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1577</v>
       </c>

--- a/Scenario3/PesquisaScopus.xlsx
+++ b/Scenario3/PesquisaScopus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\weak_signals\Scenario3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DB06A8-859B-4DCD-B233-5788F81FDE68}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E013BFE0-2FB2-4595-BDD1-70E513F30B1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F0A6DCAD-C322-1B43-8143-01FC92096E1B}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <r>
       <t>TITLE-ABS-KEY ( </t>
@@ -1919,6 +1919,101 @@
   </si>
   <si>
     <t>( TITLE-ABS-KEY ( "foresight" ) )  AND  PUBYEAR  &gt;  2009 and "weak signals" or "scenario" or "planning" or "big" or "data" or "big data" or "horizon" or  "scanning" or "horizon scanning" or "corporate" or "wild cards" or "future" or "text mining" or "innovation" or "environmental" or "early warnings" or "prospective" or "forecasting" or "strategic"</t>
+  </si>
+  <si>
+    <r>
+      <t>( ( ( TITLE-ABS-KEY ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"foresight"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> )  AND  ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"competitive intelligence"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>  OR  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"big data"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>  OR  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"forecast"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) )  AND  PUBYEAR  &gt;  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FF969696"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> ) ) </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1986,7 +2081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2007,10 +2102,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2325,10 +2423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF0166F-787D-894D-8190-7C9C1739C3CD}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2362,7 +2460,7 @@
       <c r="C3">
         <v>7</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="12">
         <f>C3+C4+C5+C6+C7</f>
         <v>298</v>
       </c>
@@ -2374,7 +2472,7 @@
       <c r="C4">
         <v>30</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
@@ -2383,7 +2481,7 @@
       <c r="C5">
         <v>21</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
@@ -2392,7 +2490,7 @@
       <c r="C6">
         <v>126</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
@@ -2401,7 +2499,7 @@
       <c r="C7">
         <v>114</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -2487,7 +2585,15 @@
       <c r="B15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="69.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>708</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
